--- a/Main.xlsx
+++ b/Main.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taher/Desktop/VC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="536">
   <si>
     <t>first_name</t>
   </si>
@@ -655,9 +665,6 @@
     <t>CHE</t>
   </si>
   <si>
-    <t>GBR</t>
-  </si>
-  <si>
     <t>General Partner</t>
   </si>
   <si>
@@ -1472,13 +1479,166 @@
   </si>
   <si>
     <t>http://www.linkedin.com/in/keith</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Moscow,</t>
+  </si>
+  <si>
+    <t>Woodside,</t>
+  </si>
+  <si>
+    <t>Menlo Park,</t>
+  </si>
+  <si>
+    <t>Atherton,</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Engaged</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, University of Washington; Master of Business Administration, Stanford Graduate School of Business</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Shanghai Jiaotong University; Master of Arts, Yale University</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Stanford University; Master of Business Administration, Harvard Business School</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, University of Illinois, Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Boston University; Master of Business Administration, University of Pennsylvania Wharton School; Master of Arts, University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Cornell University; Master of Science, Cornell University; Master of Business Administration, Kellogg School of Management</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, University of Cape Town; Master of Business Administration, Stanford University</t>
+  </si>
+  <si>
+    <t>Master of Business Administration, Samuel Curtis Johnson Graduate School of Management; Bachelor of Arts / Science, DePauw University</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Yale University; Master of Business Administration, Stanford Graduate School of Business</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Yale University</t>
+  </si>
+  <si>
+    <t>Master of Business Administration, Stanford Graduate School of Business; Bachelor of Arts / Science, Massachusetts Institute of Technology; Master of Science, Massachusetts Institute of Technology</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Dartmouth College; Master of Business Administration, Stanford Graduate School of Business</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, United States Air Force Academy; Masters of Public Administration, University of Oklahoma; Master of Business Administration, Stanford Graduate School of Business</t>
+  </si>
+  <si>
+    <t>Ph.D, Northwestern University; Master of Business Administration, Kellogg School of Management</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, University of Florida; Master of Science, University of Southern California; Master of Business Administration, Anderson School of Management</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Washington University</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Stanford University; Master of Science, Stanford University; Master of Business Administration, Stanford Graduate School of Business</t>
+  </si>
+  <si>
+    <t>Master of Science, Stanford University; Bachelor of Arts / Science, Indian Institute of Technology</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Harvard University; Master of Science, Stanford University</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Case Western Reserve University; Master of Science, Case Western Reserve University</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Brown University; Master of Business Administration, Harvard Business School</t>
+  </si>
+  <si>
+    <t>Master of Business Administration, Harvard Business School; Bachelor of Arts / Science, Harvard University</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Stanford University; Master of Business Administration, Kellogg School of Management</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Harvard University; Master of Business Administration, Stanford Graduate School of Business</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Brown University; Master of Business Administration, Stanford Graduate School of Business</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Williams College; Master of Science, Massachusetts Institute of Technology</t>
+  </si>
+  <si>
+    <t>Master of Business Administration, Stanford Graduate School of Business; Bachelor of Arts / Science, Stanford University; Master of Science, Stanford University</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Cornell University; Master of Science, Stanford University</t>
+  </si>
+  <si>
+    <t>Master of Business Administration, Stanford Graduate School of Business; Bachelor of Arts / Science, Dartmouth College</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Barnard College; Medical Doctor, University of Miami</t>
+  </si>
+  <si>
+    <t>Master of Business Administration, Columbia Business School; Bachelor of Arts / Science, University of California Berkeley</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Reed College; Bachelor of Arts / Science, California Institute of Technology</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Princeton University</t>
+  </si>
+  <si>
+    <t>Master of Business Administration, China Europe International Business School; Bachelor of Arts / Science, University of Science and Technology Beijing</t>
+  </si>
+  <si>
+    <t>BS/ MBA Wharton School of Business at the University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts / Science, Shanghai University; EMBA, China Europe International Business School</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1538,18 +1698,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1596,12 +1769,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1628,14 +1801,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1662,6 +1836,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1837,46 +2012,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="148.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1886,32 +2087,41 @@
       <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
-        <v>187</v>
+      <c r="D2" s="6">
+        <v>44</v>
       </c>
       <c r="E2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" t="s">
         <v>190</v>
       </c>
-      <c r="F2" t="s">
-        <v>208</v>
-      </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1921,32 +2131,41 @@
       <c r="C3" t="s">
         <v>92</v>
       </c>
-      <c r="D3" t="s">
-        <v>187</v>
+      <c r="D3" s="6">
+        <v>55</v>
       </c>
       <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
         <v>191</v>
       </c>
-      <c r="F3" t="s">
-        <v>208</v>
-      </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1956,29 +2175,38 @@
       <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
-        <v>187</v>
+      <c r="D4" s="6">
+        <v>41</v>
       </c>
       <c r="E4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" t="s">
         <v>192</v>
       </c>
-      <c r="F4" t="s">
-        <v>208</v>
-      </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1988,32 +2216,38 @@
       <c r="C5" t="s">
         <v>94</v>
       </c>
-      <c r="D5" t="s">
-        <v>187</v>
+      <c r="D5" s="6">
+        <v>45</v>
       </c>
       <c r="E5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" t="s">
         <v>193</v>
       </c>
-      <c r="F5" t="s">
-        <v>208</v>
-      </c>
       <c r="G5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I5" t="s">
+        <v>499</v>
+      </c>
+      <c r="J5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2023,29 +2257,38 @@
       <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" t="s">
-        <v>187</v>
+      <c r="D6" s="6">
+        <v>51</v>
       </c>
       <c r="E6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" t="s">
         <v>190</v>
       </c>
-      <c r="F6" t="s">
-        <v>208</v>
-      </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
-        <v>255</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2055,29 +2298,38 @@
       <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" t="s">
-        <v>187</v>
+      <c r="D7" s="6">
+        <v>46</v>
       </c>
       <c r="E7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" t="s">
         <v>190</v>
       </c>
-      <c r="F7" t="s">
-        <v>208</v>
-      </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2087,32 +2339,38 @@
       <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="D8" t="s">
-        <v>187</v>
+      <c r="D8" s="6">
+        <v>48</v>
       </c>
       <c r="E8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s">
         <v>190</v>
       </c>
-      <c r="F8" t="s">
-        <v>208</v>
-      </c>
       <c r="G8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" t="s">
-        <v>257</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I8" t="s">
+        <v>500</v>
+      </c>
+      <c r="J8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" t="s">
+        <v>256</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2122,29 +2380,38 @@
       <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="D9" t="s">
-        <v>187</v>
+      <c r="D9" s="6">
+        <v>50</v>
       </c>
       <c r="E9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" t="s">
         <v>190</v>
       </c>
-      <c r="F9" t="s">
-        <v>208</v>
-      </c>
       <c r="G9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" t="s">
+        <v>250</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2154,17 +2421,32 @@
       <c r="C10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" t="s">
-        <v>187</v>
+      <c r="D10" s="6">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" t="s">
+        <v>487</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>494</v>
+      </c>
+      <c r="I10" t="s">
+        <v>501</v>
+      </c>
+      <c r="J10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2174,29 +2456,38 @@
       <c r="C11" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
-        <v>187</v>
+      <c r="D11" s="6">
+        <v>52</v>
       </c>
       <c r="E11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" t="s">
         <v>194</v>
       </c>
-      <c r="F11" t="s">
-        <v>208</v>
-      </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" t="s">
+        <v>257</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2206,32 +2497,41 @@
       <c r="C12" t="s">
         <v>101</v>
       </c>
-      <c r="D12" t="s">
-        <v>187</v>
+      <c r="D12" s="6">
+        <v>55</v>
       </c>
       <c r="E12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" t="s">
         <v>194</v>
       </c>
-      <c r="F12" t="s">
-        <v>208</v>
-      </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="H12" t="s">
-        <v>259</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" t="s">
+        <v>258</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2241,32 +2541,41 @@
       <c r="C13" t="s">
         <v>102</v>
       </c>
-      <c r="D13" t="s">
-        <v>187</v>
+      <c r="D13" s="6">
+        <v>49</v>
       </c>
       <c r="E13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" t="s">
         <v>190</v>
       </c>
-      <c r="F13" t="s">
-        <v>208</v>
-      </c>
       <c r="G13" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H13" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>495</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" t="s">
+        <v>259</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2276,29 +2585,38 @@
       <c r="C14" t="s">
         <v>103</v>
       </c>
-      <c r="D14" t="s">
-        <v>187</v>
+      <c r="D14" s="6">
+        <v>62</v>
       </c>
       <c r="E14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" t="s">
         <v>194</v>
       </c>
-      <c r="F14" t="s">
-        <v>208</v>
-      </c>
       <c r="G14" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="H14" t="s">
-        <v>255</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" t="s">
+        <v>254</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2308,32 +2626,38 @@
       <c r="C15" t="s">
         <v>104</v>
       </c>
-      <c r="D15" t="s">
-        <v>187</v>
+      <c r="D15" s="6">
+        <v>49</v>
       </c>
       <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
         <v>190</v>
       </c>
-      <c r="F15" t="s">
-        <v>208</v>
-      </c>
       <c r="G15" t="s">
-        <v>225</v>
-      </c>
-      <c r="H15" t="s">
-        <v>261</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I15" t="s">
+        <v>502</v>
+      </c>
+      <c r="J15" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" t="s">
+        <v>260</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2343,32 +2667,41 @@
       <c r="C16" t="s">
         <v>105</v>
       </c>
-      <c r="D16" t="s">
-        <v>187</v>
+      <c r="D16" s="6">
+        <v>45</v>
       </c>
       <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
         <v>190</v>
       </c>
-      <c r="F16" t="s">
-        <v>208</v>
-      </c>
       <c r="G16" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H16" t="s">
-        <v>262</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I16" t="s">
+        <v>503</v>
+      </c>
+      <c r="J16" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" t="s">
+        <v>261</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2378,32 +2711,41 @@
       <c r="C17" t="s">
         <v>106</v>
       </c>
-      <c r="D17" t="s">
-        <v>187</v>
+      <c r="D17" s="6">
+        <v>47</v>
       </c>
       <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
         <v>195</v>
       </c>
-      <c r="F17" t="s">
-        <v>208</v>
-      </c>
       <c r="G17" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H17" t="s">
-        <v>263</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I17" t="s">
+        <v>504</v>
+      </c>
+      <c r="J17" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2413,26 +2755,35 @@
       <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
         <v>188</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>196</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>209</v>
       </c>
-      <c r="G18" t="s">
-        <v>215</v>
-      </c>
       <c r="H18" t="s">
-        <v>264</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I18" t="s">
+        <v>505</v>
+      </c>
+      <c r="J18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K18" t="s">
+        <v>263</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2442,32 +2793,41 @@
       <c r="C19" t="s">
         <v>107</v>
       </c>
-      <c r="D19" t="s">
-        <v>187</v>
+      <c r="D19" s="6">
+        <v>43</v>
       </c>
       <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" t="s">
         <v>194</v>
       </c>
-      <c r="F19" t="s">
-        <v>208</v>
-      </c>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H19" t="s">
-        <v>255</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I19" t="s">
+        <v>506</v>
+      </c>
+      <c r="J19" t="s">
+        <v>217</v>
+      </c>
+      <c r="K19" t="s">
+        <v>254</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2477,17 +2837,26 @@
       <c r="C20" t="s">
         <v>108</v>
       </c>
-      <c r="D20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="D20" s="6">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2497,29 +2866,38 @@
       <c r="C21" t="s">
         <v>109</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
         <v>188</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>190</v>
       </c>
-      <c r="F21" t="s">
-        <v>208</v>
-      </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" t="s">
+        <v>265</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2529,26 +2907,35 @@
       <c r="C22" t="s">
         <v>110</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
         <v>188</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>194</v>
       </c>
-      <c r="F22" t="s">
-        <v>208</v>
-      </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>495</v>
+      </c>
+      <c r="I22" t="s">
+        <v>507</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>266</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2558,17 +2945,26 @@
       <c r="C23" t="s">
         <v>111</v>
       </c>
-      <c r="D23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" t="s">
-        <v>230</v>
-      </c>
-      <c r="H23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2578,32 +2974,38 @@
       <c r="C24" t="s">
         <v>112</v>
       </c>
-      <c r="D24" t="s">
-        <v>187</v>
+      <c r="D24" s="6">
+        <v>51</v>
       </c>
       <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
         <v>197</v>
       </c>
-      <c r="F24" t="s">
-        <v>208</v>
-      </c>
       <c r="G24" t="s">
-        <v>231</v>
-      </c>
-      <c r="H24" t="s">
-        <v>269</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I24" t="s">
+        <v>508</v>
+      </c>
+      <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
+        <v>268</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2613,32 +3015,41 @@
       <c r="C25" t="s">
         <v>113</v>
       </c>
-      <c r="D25" t="s">
-        <v>187</v>
+      <c r="D25" s="6">
+        <v>40</v>
       </c>
       <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" t="s">
         <v>190</v>
       </c>
-      <c r="F25" t="s">
-        <v>208</v>
-      </c>
       <c r="G25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I25" t="s">
+        <v>509</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2648,26 +3059,32 @@
       <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" t="s">
-        <v>187</v>
+      <c r="D26" s="6">
+        <v>51</v>
       </c>
       <c r="E26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" t="s">
         <v>190</v>
       </c>
-      <c r="F26" t="s">
-        <v>208</v>
-      </c>
       <c r="G26" t="s">
-        <v>218</v>
-      </c>
-      <c r="H26" t="s">
-        <v>270</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I26" t="s">
+        <v>510</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
+        <v>269</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2677,20 +3094,29 @@
       <c r="C27" t="s">
         <v>115</v>
       </c>
-      <c r="D27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="D27" s="6">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" t="s">
         <v>209</v>
       </c>
-      <c r="G27" t="s">
-        <v>214</v>
-      </c>
       <c r="H27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I27" t="s">
+        <v>511</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2700,32 +3126,41 @@
       <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="D28" t="s">
-        <v>187</v>
+      <c r="D28" s="6">
+        <v>50</v>
       </c>
       <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" t="s">
         <v>190</v>
       </c>
-      <c r="F28" t="s">
-        <v>208</v>
-      </c>
       <c r="G28" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2735,11 +3170,26 @@
       <c r="C29" t="s">
         <v>117</v>
       </c>
-      <c r="D29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="D29" s="6">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" t="s">
+        <v>493</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2749,29 +3199,35 @@
       <c r="C30" t="s">
         <v>118</v>
       </c>
-      <c r="D30" t="s">
-        <v>187</v>
+      <c r="D30" s="6">
+        <v>60</v>
       </c>
       <c r="E30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" t="s">
         <v>195</v>
       </c>
-      <c r="F30" t="s">
-        <v>208</v>
-      </c>
       <c r="G30" t="s">
-        <v>232</v>
-      </c>
-      <c r="H30" t="s">
-        <v>272</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I30" t="s">
+        <v>512</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2781,17 +3237,26 @@
       <c r="C31" t="s">
         <v>119</v>
       </c>
-      <c r="D31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" t="s">
-        <v>233</v>
-      </c>
-      <c r="H31" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>232</v>
+      </c>
+      <c r="K31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2801,29 +3266,38 @@
       <c r="C32" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
-        <v>187</v>
+      <c r="D32" s="6">
+        <v>59</v>
       </c>
       <c r="E32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" t="s">
         <v>194</v>
       </c>
-      <c r="F32" t="s">
-        <v>208</v>
-      </c>
       <c r="G32" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H32" t="s">
-        <v>255</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" t="s">
+        <v>254</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2833,29 +3307,38 @@
       <c r="C33" t="s">
         <v>121</v>
       </c>
-      <c r="D33" t="s">
-        <v>187</v>
+      <c r="D33" s="6">
+        <v>68</v>
       </c>
       <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" t="s">
         <v>195</v>
       </c>
-      <c r="F33" t="s">
-        <v>208</v>
-      </c>
       <c r="G33" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="H33" t="s">
-        <v>274</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I33" t="s">
+        <v>513</v>
+      </c>
+      <c r="J33" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" t="s">
+        <v>273</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2865,26 +3348,38 @@
       <c r="C34" t="s">
         <v>122</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
         <v>187</v>
       </c>
       <c r="F34" t="s">
+        <v>488</v>
+      </c>
+      <c r="G34" t="s">
         <v>210</v>
       </c>
-      <c r="G34" t="s">
-        <v>219</v>
-      </c>
       <c r="H34" t="s">
-        <v>275</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>218</v>
+      </c>
+      <c r="K34" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2894,29 +3389,38 @@
       <c r="C35" t="s">
         <v>123</v>
       </c>
-      <c r="D35" t="s">
-        <v>187</v>
+      <c r="D35" s="6">
+        <v>57</v>
       </c>
       <c r="E35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" t="s">
         <v>190</v>
       </c>
-      <c r="F35" t="s">
-        <v>208</v>
-      </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H35" t="s">
-        <v>276</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>496</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>213</v>
+      </c>
+      <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2926,32 +3430,41 @@
       <c r="C36" t="s">
         <v>124</v>
       </c>
-      <c r="D36" t="s">
-        <v>187</v>
+      <c r="D36" s="6">
+        <v>48</v>
       </c>
       <c r="E36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
         <v>195</v>
       </c>
-      <c r="F36" t="s">
-        <v>208</v>
-      </c>
       <c r="G36" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H36" t="s">
-        <v>277</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2961,29 +3474,38 @@
       <c r="C37" t="s">
         <v>125</v>
       </c>
-      <c r="D37" t="s">
-        <v>187</v>
+      <c r="D37" s="6">
+        <v>48</v>
       </c>
       <c r="E37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" t="s">
         <v>190</v>
       </c>
-      <c r="F37" t="s">
-        <v>208</v>
-      </c>
       <c r="G37" t="s">
-        <v>235</v>
-      </c>
-      <c r="H37" t="s">
-        <v>278</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" t="s">
+        <v>277</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2993,14 +3515,29 @@
       <c r="C38" t="s">
         <v>126</v>
       </c>
+      <c r="D38" s="6">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>489</v>
+      </c>
       <c r="G38" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="H38" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>235</v>
+      </c>
+      <c r="K38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3010,29 +3547,38 @@
       <c r="C39" t="s">
         <v>127</v>
       </c>
-      <c r="D39" t="s">
-        <v>187</v>
+      <c r="D39" s="6">
+        <v>51</v>
       </c>
       <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" t="s">
         <v>194</v>
       </c>
-      <c r="F39" t="s">
-        <v>208</v>
-      </c>
       <c r="G39" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="H39" t="s">
-        <v>280</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I39" t="s">
+        <v>514</v>
+      </c>
+      <c r="J39" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" t="s">
+        <v>279</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3042,11 +3588,26 @@
       <c r="C40" t="s">
         <v>128</v>
       </c>
-      <c r="D40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="D40" s="6">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" t="s">
+        <v>490</v>
+      </c>
+      <c r="G40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" t="s">
+        <v>493</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3056,26 +3617,35 @@
       <c r="C41" t="s">
         <v>129</v>
       </c>
-      <c r="D41" t="s">
-        <v>187</v>
+      <c r="D41" s="6">
+        <v>50</v>
       </c>
       <c r="E41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" t="s">
         <v>191</v>
       </c>
-      <c r="F41" t="s">
-        <v>208</v>
-      </c>
       <c r="G41" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H41" t="s">
-        <v>281</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>217</v>
+      </c>
+      <c r="K41" t="s">
+        <v>280</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3085,32 +3655,41 @@
       <c r="C42" t="s">
         <v>130</v>
       </c>
-      <c r="D42" t="s">
-        <v>187</v>
+      <c r="D42" s="6">
+        <v>47</v>
       </c>
       <c r="E42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" t="s">
         <v>198</v>
       </c>
-      <c r="F42" t="s">
-        <v>208</v>
-      </c>
       <c r="G42" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H42" t="s">
-        <v>258</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>213</v>
+      </c>
+      <c r="K42" t="s">
+        <v>257</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3120,29 +3699,38 @@
       <c r="C43" t="s">
         <v>131</v>
       </c>
-      <c r="D43" t="s">
-        <v>187</v>
+      <c r="D43" s="6">
+        <v>37</v>
       </c>
       <c r="E43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" t="s">
         <v>191</v>
       </c>
-      <c r="F43" t="s">
-        <v>208</v>
-      </c>
       <c r="G43" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H43" t="s">
-        <v>282</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I43" t="s">
+        <v>515</v>
+      </c>
+      <c r="J43" t="s">
+        <v>217</v>
+      </c>
+      <c r="K43" t="s">
+        <v>281</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3152,29 +3740,38 @@
       <c r="C44" t="s">
         <v>132</v>
       </c>
-      <c r="D44" t="s">
-        <v>187</v>
+      <c r="D44" s="6">
+        <v>42</v>
       </c>
       <c r="E44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" t="s">
         <v>190</v>
       </c>
-      <c r="F44" t="s">
-        <v>208</v>
-      </c>
       <c r="G44" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H44" t="s">
-        <v>283</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>217</v>
+      </c>
+      <c r="K44" t="s">
+        <v>282</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3184,32 +3781,41 @@
       <c r="C45" t="s">
         <v>133</v>
       </c>
-      <c r="D45" t="s">
-        <v>187</v>
+      <c r="D45" s="6">
+        <v>50</v>
       </c>
       <c r="E45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" t="s">
         <v>190</v>
       </c>
-      <c r="F45" t="s">
-        <v>208</v>
-      </c>
       <c r="G45" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I45" t="s">
+        <v>516</v>
+      </c>
+      <c r="J45" t="s">
+        <v>213</v>
+      </c>
+      <c r="K45" t="s">
+        <v>255</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3219,29 +3825,38 @@
       <c r="C46" t="s">
         <v>134</v>
       </c>
-      <c r="D46" t="s">
-        <v>187</v>
+      <c r="D46" s="6">
+        <v>46</v>
       </c>
       <c r="E46" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" t="s">
         <v>194</v>
       </c>
-      <c r="F46" t="s">
-        <v>208</v>
-      </c>
       <c r="G46" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H46" t="s">
-        <v>284</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I46" t="s">
+        <v>517</v>
+      </c>
+      <c r="J46" t="s">
+        <v>233</v>
+      </c>
+      <c r="K46" t="s">
+        <v>283</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3251,29 +3866,38 @@
       <c r="C47" t="s">
         <v>115</v>
       </c>
-      <c r="D47" t="s">
-        <v>187</v>
+      <c r="D47" s="6">
+        <v>44</v>
       </c>
       <c r="E47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" t="s">
         <v>194</v>
       </c>
-      <c r="F47" t="s">
-        <v>208</v>
-      </c>
       <c r="G47" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H47" t="s">
-        <v>255</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I47" t="s">
+        <v>518</v>
+      </c>
+      <c r="J47" t="s">
+        <v>217</v>
+      </c>
+      <c r="K47" t="s">
+        <v>254</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3283,29 +3907,35 @@
       <c r="C48" t="s">
         <v>135</v>
       </c>
-      <c r="D48" t="s">
-        <v>187</v>
+      <c r="D48" s="6">
+        <v>52</v>
       </c>
       <c r="E48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" t="s">
         <v>194</v>
       </c>
-      <c r="F48" t="s">
-        <v>208</v>
-      </c>
       <c r="G48" t="s">
-        <v>218</v>
-      </c>
-      <c r="H48" t="s">
-        <v>269</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I48" t="s">
+        <v>519</v>
+      </c>
+      <c r="J48" t="s">
+        <v>217</v>
+      </c>
+      <c r="K48" t="s">
+        <v>268</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3315,29 +3945,38 @@
       <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="D49" t="s">
-        <v>187</v>
+      <c r="D49" s="6">
+        <v>51</v>
       </c>
       <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" t="s">
         <v>190</v>
       </c>
-      <c r="F49" t="s">
-        <v>208</v>
-      </c>
       <c r="G49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H49" t="s">
-        <v>285</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>213</v>
+      </c>
+      <c r="K49" t="s">
+        <v>284</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3347,29 +3986,38 @@
       <c r="C50" t="s">
         <v>137</v>
       </c>
-      <c r="D50" t="s">
-        <v>187</v>
+      <c r="D50" s="6">
+        <v>73</v>
       </c>
       <c r="E50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" t="s">
         <v>194</v>
       </c>
-      <c r="F50" t="s">
-        <v>208</v>
-      </c>
       <c r="G50" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H50" t="s">
-        <v>258</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>213</v>
+      </c>
+      <c r="K50" t="s">
+        <v>257</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3379,23 +4027,38 @@
       <c r="C51" t="s">
         <v>138</v>
       </c>
-      <c r="D51" t="s">
-        <v>187</v>
+      <c r="D51" s="6">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" t="s">
+        <v>489</v>
       </c>
       <c r="G51" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="H51" t="s">
-        <v>286</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>495</v>
+      </c>
+      <c r="I51" t="s">
+        <v>520</v>
+      </c>
+      <c r="J51" t="s">
+        <v>237</v>
+      </c>
+      <c r="K51" t="s">
+        <v>285</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3405,29 +4068,38 @@
       <c r="C52" t="s">
         <v>139</v>
       </c>
-      <c r="D52" t="s">
-        <v>187</v>
+      <c r="D52" s="6">
+        <v>45</v>
       </c>
       <c r="E52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" t="s">
         <v>199</v>
       </c>
-      <c r="F52" t="s">
-        <v>208</v>
-      </c>
       <c r="G52" t="s">
-        <v>215</v>
-      </c>
-      <c r="H52" t="s">
-        <v>287</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>214</v>
+      </c>
+      <c r="K52" t="s">
+        <v>286</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3437,23 +4109,38 @@
       <c r="C53" t="s">
         <v>140</v>
       </c>
-      <c r="D53" t="s">
-        <v>187</v>
+      <c r="D53" s="6">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" t="s">
+        <v>191</v>
       </c>
       <c r="G53" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H53" t="s">
-        <v>288</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>233</v>
+      </c>
+      <c r="K53" t="s">
+        <v>287</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3463,26 +4150,35 @@
       <c r="C54" t="s">
         <v>141</v>
       </c>
-      <c r="D54" t="s">
-        <v>187</v>
+      <c r="D54" s="6">
+        <v>51</v>
       </c>
       <c r="E54" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" t="s">
         <v>200</v>
       </c>
-      <c r="F54" t="s">
-        <v>208</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="G54" t="s">
+        <v>208</v>
+      </c>
+      <c r="H54" t="s">
+        <v>493</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3492,26 +4188,41 @@
       <c r="C55" t="s">
         <v>142</v>
       </c>
-      <c r="D55" t="s">
-        <v>187</v>
+      <c r="D55" s="6">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" t="s">
+        <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="H55" t="s">
-        <v>289</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>238</v>
+      </c>
+      <c r="K55" t="s">
+        <v>288</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3521,17 +4232,29 @@
       <c r="C56" t="s">
         <v>143</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
         <v>187</v>
       </c>
       <c r="G56" t="s">
-        <v>228</v>
-      </c>
-      <c r="H56" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>521</v>
+      </c>
+      <c r="J56" t="s">
+        <v>227</v>
+      </c>
+      <c r="K56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3541,29 +4264,35 @@
       <c r="C57" t="s">
         <v>144</v>
       </c>
-      <c r="D57" t="s">
-        <v>187</v>
+      <c r="D57" s="6">
+        <v>50</v>
       </c>
       <c r="E57" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" t="s">
         <v>195</v>
       </c>
-      <c r="F57" t="s">
-        <v>208</v>
-      </c>
       <c r="G57" t="s">
-        <v>234</v>
-      </c>
-      <c r="H57" t="s">
-        <v>272</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I57" t="s">
+        <v>522</v>
+      </c>
+      <c r="J57" t="s">
+        <v>233</v>
+      </c>
+      <c r="K57" t="s">
+        <v>271</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3573,8 +4302,23 @@
       <c r="C58" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="D58" s="6">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" t="s">
+        <v>208</v>
+      </c>
+      <c r="H58" t="s">
+        <v>493</v>
+      </c>
+      <c r="I58" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3584,29 +4328,38 @@
       <c r="C59" t="s">
         <v>145</v>
       </c>
-      <c r="D59" t="s">
-        <v>187</v>
+      <c r="D59" s="6">
+        <v>42</v>
       </c>
       <c r="E59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" t="s">
         <v>194</v>
       </c>
-      <c r="F59" t="s">
-        <v>208</v>
-      </c>
       <c r="G59" t="s">
-        <v>218</v>
-      </c>
-      <c r="H59" t="s">
-        <v>291</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>217</v>
+      </c>
+      <c r="K59" t="s">
+        <v>290</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3616,29 +4369,38 @@
       <c r="C60" t="s">
         <v>146</v>
       </c>
-      <c r="D60" t="s">
-        <v>187</v>
+      <c r="D60" s="6">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" t="s">
         <v>195</v>
       </c>
-      <c r="F60" t="s">
-        <v>208</v>
-      </c>
       <c r="G60" t="s">
-        <v>234</v>
-      </c>
-      <c r="H60" t="s">
-        <v>292</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>233</v>
+      </c>
+      <c r="K60" t="s">
+        <v>291</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3648,32 +4410,41 @@
       <c r="C61" t="s">
         <v>147</v>
       </c>
-      <c r="D61" t="s">
-        <v>187</v>
+      <c r="D61" s="6">
+        <v>45</v>
       </c>
       <c r="E61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" t="s">
         <v>190</v>
       </c>
-      <c r="F61" t="s">
-        <v>208</v>
-      </c>
       <c r="G61" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H61" t="s">
-        <v>291</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>233</v>
+      </c>
+      <c r="K61" t="s">
+        <v>290</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3683,26 +4454,35 @@
       <c r="C62" t="s">
         <v>148</v>
       </c>
-      <c r="D62" t="s">
-        <v>187</v>
+      <c r="D62" s="6">
+        <v>57</v>
       </c>
       <c r="E62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" t="s">
         <v>199</v>
       </c>
-      <c r="F62" t="s">
-        <v>208</v>
-      </c>
       <c r="G62" t="s">
-        <v>235</v>
-      </c>
-      <c r="H62" t="s">
-        <v>293</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>234</v>
+      </c>
+      <c r="K62" t="s">
+        <v>292</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3712,17 +4492,26 @@
       <c r="C63" t="s">
         <v>149</v>
       </c>
-      <c r="D63" t="s">
-        <v>187</v>
-      </c>
-      <c r="G63" t="s">
-        <v>240</v>
-      </c>
-      <c r="H63" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>187</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>239</v>
+      </c>
+      <c r="K63" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3732,26 +4521,35 @@
       <c r="C64" t="s">
         <v>150</v>
       </c>
-      <c r="D64" t="s">
-        <v>187</v>
+      <c r="D64" s="6">
+        <v>50</v>
       </c>
       <c r="E64" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" t="s">
         <v>201</v>
       </c>
-      <c r="F64" t="s">
-        <v>208</v>
-      </c>
       <c r="G64" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H64" t="s">
-        <v>271</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>486</v>
+      </c>
+      <c r="I64" t="s">
+        <v>524</v>
+      </c>
+      <c r="J64" t="s">
+        <v>225</v>
+      </c>
+      <c r="K64" t="s">
+        <v>270</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3761,26 +4559,35 @@
       <c r="C65" t="s">
         <v>151</v>
       </c>
-      <c r="D65" t="s">
-        <v>187</v>
+      <c r="D65" s="6">
+        <v>44</v>
       </c>
       <c r="E65" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" t="s">
         <v>190</v>
       </c>
-      <c r="F65" t="s">
-        <v>208</v>
-      </c>
       <c r="G65" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H65" t="s">
-        <v>295</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>217</v>
+      </c>
+      <c r="K65" t="s">
+        <v>294</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3790,26 +4597,35 @@
       <c r="C66" t="s">
         <v>152</v>
       </c>
-      <c r="D66" t="s">
-        <v>187</v>
+      <c r="D66" s="6">
+        <v>41</v>
       </c>
       <c r="E66" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" t="s">
         <v>190</v>
       </c>
-      <c r="F66" t="s">
-        <v>208</v>
-      </c>
       <c r="G66" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H66" t="s">
-        <v>270</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>217</v>
+      </c>
+      <c r="K66" t="s">
+        <v>269</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3819,29 +4635,35 @@
       <c r="C67" t="s">
         <v>153</v>
       </c>
-      <c r="D67" t="s">
-        <v>187</v>
+      <c r="D67" s="6">
+        <v>49</v>
       </c>
       <c r="E67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" t="s">
         <v>190</v>
       </c>
-      <c r="F67" t="s">
-        <v>208</v>
-      </c>
       <c r="G67" t="s">
-        <v>232</v>
-      </c>
-      <c r="H67" t="s">
-        <v>272</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I67" t="s">
+        <v>525</v>
+      </c>
+      <c r="J67" t="s">
+        <v>231</v>
+      </c>
+      <c r="K67" t="s">
+        <v>271</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3851,32 +4673,41 @@
       <c r="C68" t="s">
         <v>154</v>
       </c>
-      <c r="D68" t="s">
-        <v>187</v>
+      <c r="D68" s="6">
+        <v>42</v>
       </c>
       <c r="E68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" t="s">
         <v>202</v>
       </c>
-      <c r="F68" t="s">
-        <v>208</v>
-      </c>
       <c r="G68" t="s">
-        <v>234</v>
-      </c>
-      <c r="H68" t="s">
-        <v>296</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>233</v>
+      </c>
+      <c r="K68" t="s">
+        <v>295</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3886,23 +4717,32 @@
       <c r="C69" t="s">
         <v>155</v>
       </c>
-      <c r="D69" t="s">
-        <v>187</v>
+      <c r="D69" s="6">
+        <v>47</v>
       </c>
       <c r="E69" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" t="s">
         <v>203</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>211</v>
       </c>
-      <c r="G69" t="s">
-        <v>241</v>
-      </c>
-      <c r="H69" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>240</v>
+      </c>
+      <c r="K69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3912,32 +4752,41 @@
       <c r="C70" t="s">
         <v>156</v>
       </c>
-      <c r="D70" t="s">
-        <v>187</v>
+      <c r="D70" s="6">
+        <v>65</v>
       </c>
       <c r="E70" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" t="s">
         <v>194</v>
       </c>
-      <c r="F70" t="s">
-        <v>208</v>
-      </c>
       <c r="G70" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H70" t="s">
-        <v>267</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>497</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>213</v>
+      </c>
+      <c r="K70" t="s">
+        <v>266</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3947,29 +4796,38 @@
       <c r="C71" t="s">
         <v>157</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="6">
+        <v>60</v>
+      </c>
+      <c r="E71" t="s">
         <v>188</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>204</v>
       </c>
-      <c r="F71" t="s">
-        <v>208</v>
-      </c>
       <c r="G71" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H71" t="s">
-        <v>298</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>214</v>
+      </c>
+      <c r="K71" t="s">
+        <v>297</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3979,29 +4837,38 @@
       <c r="C72" t="s">
         <v>158</v>
       </c>
-      <c r="D72" t="s">
-        <v>187</v>
+      <c r="D72" s="6">
+        <v>52</v>
       </c>
       <c r="E72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" t="s">
         <v>205</v>
       </c>
-      <c r="F72" t="s">
-        <v>208</v>
-      </c>
       <c r="G72" t="s">
-        <v>242</v>
-      </c>
-      <c r="H72" t="s">
-        <v>299</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>241</v>
+      </c>
+      <c r="K72" t="s">
+        <v>298</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4011,29 +4878,35 @@
       <c r="C73" t="s">
         <v>159</v>
       </c>
-      <c r="D73" t="s">
-        <v>187</v>
+      <c r="D73" s="6">
+        <v>44</v>
       </c>
       <c r="E73" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" t="s">
         <v>195</v>
       </c>
-      <c r="F73" t="s">
-        <v>208</v>
-      </c>
       <c r="G73" t="s">
-        <v>218</v>
-      </c>
-      <c r="H73" t="s">
-        <v>270</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I73" t="s">
+        <v>526</v>
+      </c>
+      <c r="J73" t="s">
+        <v>217</v>
+      </c>
+      <c r="K73" t="s">
+        <v>269</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4043,29 +4916,38 @@
       <c r="C74" t="s">
         <v>160</v>
       </c>
-      <c r="D74" t="s">
-        <v>187</v>
+      <c r="D74" s="6">
+        <v>53</v>
       </c>
       <c r="E74" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" t="s">
         <v>194</v>
       </c>
-      <c r="F74" t="s">
-        <v>208</v>
-      </c>
       <c r="G74" t="s">
-        <v>214</v>
-      </c>
-      <c r="H74" t="s">
-        <v>258</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>213</v>
+      </c>
+      <c r="K74" t="s">
+        <v>257</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4075,29 +4957,38 @@
       <c r="C75" t="s">
         <v>161</v>
       </c>
-      <c r="D75" t="s">
-        <v>187</v>
+      <c r="D75" s="6">
+        <v>37</v>
       </c>
       <c r="E75" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" t="s">
         <v>194</v>
       </c>
-      <c r="F75" t="s">
-        <v>208</v>
-      </c>
       <c r="G75" t="s">
-        <v>234</v>
-      </c>
-      <c r="H75" t="s">
-        <v>300</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>233</v>
+      </c>
+      <c r="K75" t="s">
+        <v>299</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4107,20 +4998,26 @@
       <c r="C76" t="s">
         <v>162</v>
       </c>
-      <c r="D76" t="s">
-        <v>187</v>
+      <c r="D76" s="6">
+        <v>53</v>
       </c>
       <c r="E76" t="s">
+        <v>187</v>
+      </c>
+      <c r="F76" t="s">
         <v>190</v>
       </c>
-      <c r="F76" t="s">
-        <v>208</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="G76" t="s">
+        <v>208</v>
+      </c>
+      <c r="I76" t="s">
+        <v>527</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4130,14 +5027,29 @@
       <c r="C77" t="s">
         <v>163</v>
       </c>
-      <c r="D77" t="s">
-        <v>187</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="D77" s="6">
+        <v>39</v>
+      </c>
+      <c r="E77" t="s">
+        <v>187</v>
+      </c>
+      <c r="F77" t="s">
+        <v>194</v>
+      </c>
+      <c r="G77" t="s">
+        <v>208</v>
+      </c>
+      <c r="H77" t="s">
+        <v>493</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4147,32 +5059,41 @@
       <c r="C78" t="s">
         <v>164</v>
       </c>
-      <c r="D78" t="s">
-        <v>187</v>
+      <c r="D78" s="6">
+        <v>48</v>
       </c>
       <c r="E78" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" t="s">
         <v>190</v>
       </c>
-      <c r="F78" t="s">
-        <v>208</v>
-      </c>
       <c r="G78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H78" t="s">
-        <v>270</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>213</v>
+      </c>
+      <c r="K78" t="s">
+        <v>269</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4182,29 +5103,38 @@
       <c r="C79" t="s">
         <v>165</v>
       </c>
-      <c r="D79" t="s">
-        <v>187</v>
+      <c r="D79" s="6">
+        <v>52</v>
       </c>
       <c r="E79" t="s">
+        <v>187</v>
+      </c>
+      <c r="F79" t="s">
         <v>194</v>
       </c>
-      <c r="F79" t="s">
-        <v>208</v>
-      </c>
       <c r="G79" t="s">
-        <v>243</v>
-      </c>
-      <c r="H79" t="s">
-        <v>291</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>242</v>
+      </c>
+      <c r="K79" t="s">
+        <v>290</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4214,29 +5144,38 @@
       <c r="C80" t="s">
         <v>166</v>
       </c>
-      <c r="D80" t="s">
-        <v>187</v>
+      <c r="D80" s="6">
+        <v>60</v>
       </c>
       <c r="E80" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" t="s">
         <v>190</v>
       </c>
-      <c r="F80" t="s">
-        <v>208</v>
-      </c>
       <c r="G80" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="H80" t="s">
-        <v>301</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I80" t="s">
+        <v>528</v>
+      </c>
+      <c r="J80" t="s">
+        <v>234</v>
+      </c>
+      <c r="K80" t="s">
+        <v>300</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4246,11 +5185,20 @@
       <c r="C81" t="s">
         <v>167</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="6">
+        <v>44</v>
+      </c>
+      <c r="E81" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4260,32 +5208,41 @@
       <c r="C82" t="s">
         <v>168</v>
       </c>
-      <c r="D82" t="s">
-        <v>187</v>
+      <c r="D82" s="6">
+        <v>43</v>
       </c>
       <c r="E82" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" t="s">
         <v>195</v>
       </c>
-      <c r="F82" t="s">
-        <v>208</v>
-      </c>
       <c r="G82" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H82" t="s">
-        <v>302</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>217</v>
+      </c>
+      <c r="K82" t="s">
+        <v>301</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4295,26 +5252,35 @@
       <c r="C83" t="s">
         <v>169</v>
       </c>
-      <c r="D83" t="s">
-        <v>187</v>
+      <c r="D83" s="6">
+        <v>59</v>
       </c>
       <c r="E83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" t="s">
         <v>206</v>
       </c>
-      <c r="F83" t="s">
-        <v>208</v>
-      </c>
       <c r="G83" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="H83" t="s">
-        <v>296</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>236</v>
+      </c>
+      <c r="K83" t="s">
+        <v>295</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4324,23 +5290,32 @@
       <c r="C84" t="s">
         <v>170</v>
       </c>
-      <c r="D84" t="s">
-        <v>187</v>
+      <c r="D84" s="6">
+        <v>71</v>
       </c>
       <c r="E84" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" t="s">
         <v>190</v>
       </c>
-      <c r="F84" t="s">
-        <v>208</v>
-      </c>
       <c r="G84" t="s">
-        <v>244</v>
-      </c>
-      <c r="H84" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>243</v>
+      </c>
+      <c r="K84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4350,29 +5325,38 @@
       <c r="C85" t="s">
         <v>96</v>
       </c>
-      <c r="D85" t="s">
-        <v>187</v>
+      <c r="D85" s="6">
+        <v>54</v>
       </c>
       <c r="E85" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" t="s">
         <v>207</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>212</v>
       </c>
-      <c r="G85" t="s">
-        <v>223</v>
-      </c>
-      <c r="H85" t="s">
-        <v>256</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>222</v>
+      </c>
+      <c r="K85" t="s">
+        <v>255</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4382,29 +5366,38 @@
       <c r="C86" t="s">
         <v>171</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="6">
+        <v>58</v>
+      </c>
+      <c r="E86" t="s">
         <v>188</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>190</v>
       </c>
-      <c r="F86" t="s">
-        <v>208</v>
-      </c>
       <c r="G86" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H86" t="s">
-        <v>267</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I86" t="s">
+        <v>529</v>
+      </c>
+      <c r="J86" t="s">
+        <v>213</v>
+      </c>
+      <c r="K86" t="s">
+        <v>266</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4414,29 +5407,38 @@
       <c r="C87" t="s">
         <v>172</v>
       </c>
-      <c r="D87" t="s">
-        <v>187</v>
+      <c r="D87" s="6">
+        <v>55</v>
       </c>
       <c r="E87" t="s">
+        <v>187</v>
+      </c>
+      <c r="F87" t="s">
         <v>190</v>
       </c>
-      <c r="F87" t="s">
-        <v>208</v>
-      </c>
       <c r="G87" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H87" t="s">
-        <v>251</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>213</v>
+      </c>
+      <c r="K87" t="s">
+        <v>250</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4446,14 +5448,23 @@
       <c r="C88" t="s">
         <v>173</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="6">
+        <v>50</v>
+      </c>
+      <c r="E88" t="s">
         <v>187</v>
       </c>
       <c r="F88" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>190</v>
+      </c>
+      <c r="G88" t="s">
+        <v>208</v>
+      </c>
+      <c r="I88" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4463,14 +5474,29 @@
       <c r="C89" t="s">
         <v>174</v>
       </c>
-      <c r="D89" t="s">
-        <v>187</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="D89" s="6">
+        <v>51</v>
+      </c>
+      <c r="E89" t="s">
+        <v>187</v>
+      </c>
+      <c r="F89" t="s">
+        <v>491</v>
+      </c>
+      <c r="G89" t="s">
+        <v>208</v>
+      </c>
+      <c r="H89" t="s">
+        <v>493</v>
+      </c>
+      <c r="I89" t="s">
+        <v>521</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4480,29 +5506,38 @@
       <c r="C90" t="s">
         <v>175</v>
       </c>
-      <c r="D90" t="s">
-        <v>187</v>
+      <c r="D90" s="6">
+        <v>39</v>
       </c>
       <c r="E90" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" t="s">
         <v>190</v>
       </c>
-      <c r="F90" t="s">
-        <v>208</v>
-      </c>
       <c r="G90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H90" t="s">
-        <v>270</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>217</v>
+      </c>
+      <c r="K90" t="s">
+        <v>269</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4512,29 +5547,38 @@
       <c r="C91" t="s">
         <v>176</v>
       </c>
-      <c r="D91" t="s">
-        <v>187</v>
+      <c r="D91" s="6">
+        <v>42</v>
       </c>
       <c r="E91" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91" t="s">
         <v>191</v>
       </c>
-      <c r="F91" t="s">
-        <v>208</v>
-      </c>
       <c r="G91" t="s">
-        <v>218</v>
-      </c>
-      <c r="H91" t="s">
-        <v>283</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>217</v>
+      </c>
+      <c r="K91" t="s">
+        <v>282</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4544,32 +5588,41 @@
       <c r="C92" t="s">
         <v>177</v>
       </c>
-      <c r="D92" t="s">
-        <v>187</v>
+      <c r="D92" s="6">
+        <v>49</v>
       </c>
       <c r="E92" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" t="s">
         <v>190</v>
       </c>
-      <c r="F92" t="s">
-        <v>208</v>
-      </c>
       <c r="G92" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H92" t="s">
-        <v>303</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>217</v>
+      </c>
+      <c r="K92" t="s">
+        <v>302</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4579,29 +5632,38 @@
       <c r="C93" t="s">
         <v>178</v>
       </c>
-      <c r="D93" t="s">
-        <v>187</v>
+      <c r="D93" s="6">
+        <v>43</v>
       </c>
       <c r="E93" t="s">
+        <v>187</v>
+      </c>
+      <c r="F93" t="s">
         <v>195</v>
       </c>
-      <c r="F93" t="s">
-        <v>208</v>
-      </c>
       <c r="G93" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="H93" t="s">
-        <v>300</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I93" t="s">
+        <v>531</v>
+      </c>
+      <c r="J93" t="s">
+        <v>244</v>
+      </c>
+      <c r="K93" t="s">
+        <v>299</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4611,29 +5673,38 @@
       <c r="C94" t="s">
         <v>179</v>
       </c>
-      <c r="D94" t="s">
-        <v>187</v>
+      <c r="D94" s="6">
+        <v>50</v>
       </c>
       <c r="E94" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94" t="s">
         <v>194</v>
       </c>
-      <c r="F94" t="s">
-        <v>208</v>
-      </c>
       <c r="G94" t="s">
-        <v>243</v>
-      </c>
-      <c r="H94" t="s">
-        <v>291</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>242</v>
+      </c>
+      <c r="K94" t="s">
+        <v>290</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4643,29 +5714,38 @@
       <c r="C95" t="s">
         <v>180</v>
       </c>
-      <c r="D95" t="s">
-        <v>187</v>
+      <c r="D95" s="6">
+        <v>52</v>
       </c>
       <c r="E95" t="s">
+        <v>187</v>
+      </c>
+      <c r="F95" t="s">
         <v>190</v>
       </c>
-      <c r="F95" t="s">
-        <v>208</v>
-      </c>
       <c r="G95" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="H95" t="s">
-        <v>304</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I95" t="s">
+        <v>532</v>
+      </c>
+      <c r="J95" t="s">
+        <v>245</v>
+      </c>
+      <c r="K95" t="s">
+        <v>303</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4675,26 +5755,35 @@
       <c r="C96" t="s">
         <v>181</v>
       </c>
-      <c r="D96" t="s">
-        <v>187</v>
+      <c r="D96" s="6">
+        <v>41</v>
       </c>
       <c r="E96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
       </c>
-      <c r="F96" t="s">
-        <v>208</v>
-      </c>
       <c r="G96" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H96" t="s">
-        <v>305</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>493</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>233</v>
+      </c>
+      <c r="K96" t="s">
+        <v>304</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4704,26 +5793,32 @@
       <c r="C97" t="s">
         <v>182</v>
       </c>
-      <c r="D97" t="s">
-        <v>187</v>
+      <c r="D97" s="6">
+        <v>43</v>
       </c>
       <c r="E97" t="s">
+        <v>187</v>
+      </c>
+      <c r="F97" t="s">
         <v>190</v>
       </c>
-      <c r="F97" t="s">
-        <v>208</v>
-      </c>
       <c r="G97" t="s">
-        <v>247</v>
-      </c>
-      <c r="H97" t="s">
-        <v>306</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="I97" t="s">
+        <v>533</v>
+      </c>
+      <c r="J97" t="s">
+        <v>246</v>
+      </c>
+      <c r="K97" t="s">
+        <v>305</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4733,29 +5828,38 @@
       <c r="C98" t="s">
         <v>183</v>
       </c>
-      <c r="D98" t="s">
-        <v>187</v>
+      <c r="D98" s="6">
+        <v>40</v>
       </c>
       <c r="E98" t="s">
+        <v>187</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
       </c>
-      <c r="F98" t="s">
-        <v>208</v>
-      </c>
       <c r="G98" t="s">
-        <v>248</v>
-      </c>
-      <c r="H98" t="s">
-        <v>307</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>534</v>
+      </c>
+      <c r="J98" t="s">
+        <v>247</v>
+      </c>
+      <c r="K98" t="s">
+        <v>306</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4765,17 +5869,26 @@
       <c r="C99" t="s">
         <v>184</v>
       </c>
-      <c r="D99" t="s">
-        <v>187</v>
+      <c r="D99" s="6">
+        <v>53</v>
       </c>
       <c r="E99" t="s">
+        <v>187</v>
+      </c>
+      <c r="F99" t="s">
         <v>190</v>
       </c>
-      <c r="F99" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="G99" t="s">
+        <v>208</v>
+      </c>
+      <c r="H99" t="s">
+        <v>493</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4785,17 +5898,23 @@
       <c r="C100" t="s">
         <v>185</v>
       </c>
-      <c r="D100" t="s">
-        <v>187</v>
-      </c>
-      <c r="G100" t="s">
-        <v>249</v>
-      </c>
-      <c r="H100" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="D100" s="6">
+        <v>59</v>
+      </c>
+      <c r="E100" t="s">
+        <v>187</v>
+      </c>
+      <c r="I100" t="s">
+        <v>535</v>
+      </c>
+      <c r="J100" t="s">
+        <v>248</v>
+      </c>
+      <c r="K100" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4805,210 +5924,261 @@
       <c r="C101" t="s">
         <v>186</v>
       </c>
-      <c r="D101" t="s">
-        <v>187</v>
+      <c r="D101" s="6">
+        <v>48</v>
       </c>
       <c r="E101" t="s">
+        <v>187</v>
+      </c>
+      <c r="F101" t="s">
         <v>190</v>
       </c>
-      <c r="F101" t="s">
-        <v>208</v>
-      </c>
       <c r="G101" t="s">
-        <v>250</v>
-      </c>
-      <c r="H101" t="s">
-        <v>295</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>485</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>249</v>
+      </c>
+      <c r="K101" t="s">
+        <v>294</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D115" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="K2" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="J3" r:id="rId5"/>
-    <hyperlink ref="K3" r:id="rId6"/>
-    <hyperlink ref="I4" r:id="rId7"/>
-    <hyperlink ref="J4" r:id="rId8"/>
-    <hyperlink ref="I5" r:id="rId9"/>
-    <hyperlink ref="J5" r:id="rId10"/>
-    <hyperlink ref="K5" r:id="rId11"/>
-    <hyperlink ref="I6" r:id="rId12"/>
-    <hyperlink ref="K6" r:id="rId13"/>
-    <hyperlink ref="I7" r:id="rId14"/>
-    <hyperlink ref="K7" r:id="rId15"/>
-    <hyperlink ref="I8" r:id="rId16"/>
-    <hyperlink ref="J8" r:id="rId17"/>
-    <hyperlink ref="K8" r:id="rId18"/>
-    <hyperlink ref="I9" r:id="rId19"/>
-    <hyperlink ref="K9" r:id="rId20"/>
-    <hyperlink ref="I11" r:id="rId21"/>
-    <hyperlink ref="K11" r:id="rId22"/>
-    <hyperlink ref="I12" r:id="rId23"/>
-    <hyperlink ref="J12" r:id="rId24"/>
-    <hyperlink ref="K12" r:id="rId25"/>
-    <hyperlink ref="I13" r:id="rId26"/>
-    <hyperlink ref="J13" r:id="rId27"/>
-    <hyperlink ref="K13" r:id="rId28"/>
-    <hyperlink ref="J14" r:id="rId29"/>
-    <hyperlink ref="K14" r:id="rId30"/>
-    <hyperlink ref="I15" r:id="rId31"/>
-    <hyperlink ref="J15" r:id="rId32"/>
-    <hyperlink ref="K15" r:id="rId33"/>
-    <hyperlink ref="I16" r:id="rId34"/>
-    <hyperlink ref="J16" r:id="rId35"/>
-    <hyperlink ref="K16" r:id="rId36"/>
-    <hyperlink ref="I17" r:id="rId37"/>
-    <hyperlink ref="J17" r:id="rId38"/>
-    <hyperlink ref="K17" r:id="rId39"/>
-    <hyperlink ref="K18" r:id="rId40"/>
-    <hyperlink ref="I19" r:id="rId41"/>
-    <hyperlink ref="J19" r:id="rId42"/>
-    <hyperlink ref="K19" r:id="rId43"/>
-    <hyperlink ref="I21" r:id="rId44"/>
-    <hyperlink ref="K21" r:id="rId45"/>
-    <hyperlink ref="K22" r:id="rId46"/>
-    <hyperlink ref="I24" r:id="rId47"/>
-    <hyperlink ref="J24" r:id="rId48"/>
-    <hyperlink ref="K24" r:id="rId49"/>
-    <hyperlink ref="I25" r:id="rId50"/>
-    <hyperlink ref="J25" r:id="rId51"/>
-    <hyperlink ref="K25" r:id="rId52"/>
-    <hyperlink ref="K26" r:id="rId53"/>
-    <hyperlink ref="I28" r:id="rId54"/>
-    <hyperlink ref="J28" r:id="rId55"/>
-    <hyperlink ref="K28" r:id="rId56"/>
-    <hyperlink ref="J30" r:id="rId57"/>
-    <hyperlink ref="K30" r:id="rId58"/>
-    <hyperlink ref="I32" r:id="rId59"/>
-    <hyperlink ref="K32" r:id="rId60"/>
-    <hyperlink ref="I33" r:id="rId61"/>
-    <hyperlink ref="K33" r:id="rId62"/>
-    <hyperlink ref="I34" r:id="rId63"/>
-    <hyperlink ref="K34" r:id="rId64"/>
-    <hyperlink ref="I35" r:id="rId65"/>
-    <hyperlink ref="K35" r:id="rId66"/>
-    <hyperlink ref="I36" r:id="rId67"/>
-    <hyperlink ref="J36" r:id="rId68"/>
-    <hyperlink ref="K36" r:id="rId69"/>
-    <hyperlink ref="I37" r:id="rId70"/>
-    <hyperlink ref="K37" r:id="rId71"/>
-    <hyperlink ref="I39" r:id="rId72"/>
-    <hyperlink ref="K39" r:id="rId73"/>
-    <hyperlink ref="K41" r:id="rId74"/>
-    <hyperlink ref="I42" r:id="rId75"/>
-    <hyperlink ref="J42" r:id="rId76"/>
-    <hyperlink ref="K42" r:id="rId77"/>
-    <hyperlink ref="I43" r:id="rId78"/>
-    <hyperlink ref="K43" r:id="rId79"/>
-    <hyperlink ref="I44" r:id="rId80"/>
-    <hyperlink ref="K44" r:id="rId81"/>
-    <hyperlink ref="I45" r:id="rId82"/>
-    <hyperlink ref="J45" r:id="rId83"/>
-    <hyperlink ref="K45" r:id="rId84"/>
-    <hyperlink ref="I46" r:id="rId85"/>
-    <hyperlink ref="K46" r:id="rId86"/>
-    <hyperlink ref="I47" r:id="rId87"/>
-    <hyperlink ref="K47" r:id="rId88"/>
-    <hyperlink ref="I48" r:id="rId89"/>
-    <hyperlink ref="K48" r:id="rId90"/>
-    <hyperlink ref="I49" r:id="rId91"/>
-    <hyperlink ref="K49" r:id="rId92"/>
-    <hyperlink ref="J50" r:id="rId93"/>
-    <hyperlink ref="K50" r:id="rId94"/>
-    <hyperlink ref="I51" r:id="rId95"/>
-    <hyperlink ref="K51" r:id="rId96"/>
-    <hyperlink ref="I52" r:id="rId97"/>
-    <hyperlink ref="K52" r:id="rId98"/>
-    <hyperlink ref="I53" r:id="rId99"/>
-    <hyperlink ref="K53" r:id="rId100"/>
-    <hyperlink ref="I54" r:id="rId101"/>
-    <hyperlink ref="J54" r:id="rId102"/>
-    <hyperlink ref="K54" r:id="rId103"/>
-    <hyperlink ref="I55" r:id="rId104"/>
-    <hyperlink ref="J55" r:id="rId105"/>
-    <hyperlink ref="K55" r:id="rId106"/>
-    <hyperlink ref="I57" r:id="rId107"/>
-    <hyperlink ref="K57" r:id="rId108"/>
-    <hyperlink ref="I59" r:id="rId109"/>
-    <hyperlink ref="K59" r:id="rId110"/>
-    <hyperlink ref="I60" r:id="rId111"/>
-    <hyperlink ref="K60" r:id="rId112"/>
-    <hyperlink ref="I61" r:id="rId113"/>
-    <hyperlink ref="J61" r:id="rId114"/>
-    <hyperlink ref="K61" r:id="rId115"/>
-    <hyperlink ref="K62" r:id="rId116"/>
-    <hyperlink ref="J64" r:id="rId117"/>
-    <hyperlink ref="K65" r:id="rId118"/>
-    <hyperlink ref="K66" r:id="rId119"/>
-    <hyperlink ref="I67" r:id="rId120"/>
-    <hyperlink ref="K67" r:id="rId121"/>
-    <hyperlink ref="I68" r:id="rId122"/>
-    <hyperlink ref="J68" r:id="rId123"/>
-    <hyperlink ref="K68" r:id="rId124"/>
-    <hyperlink ref="I70" r:id="rId125"/>
-    <hyperlink ref="J70" r:id="rId126"/>
-    <hyperlink ref="K70" r:id="rId127"/>
-    <hyperlink ref="I71" r:id="rId128"/>
-    <hyperlink ref="K71" r:id="rId129"/>
-    <hyperlink ref="I72" r:id="rId130"/>
-    <hyperlink ref="K72" r:id="rId131"/>
-    <hyperlink ref="I73" r:id="rId132"/>
-    <hyperlink ref="K73" r:id="rId133"/>
-    <hyperlink ref="I74" r:id="rId134"/>
-    <hyperlink ref="K74" r:id="rId135"/>
-    <hyperlink ref="I75" r:id="rId136"/>
-    <hyperlink ref="K75" r:id="rId137"/>
-    <hyperlink ref="K76" r:id="rId138"/>
-    <hyperlink ref="K77" r:id="rId139"/>
-    <hyperlink ref="I78" r:id="rId140"/>
-    <hyperlink ref="J78" r:id="rId141"/>
-    <hyperlink ref="K78" r:id="rId142"/>
-    <hyperlink ref="I79" r:id="rId143"/>
-    <hyperlink ref="K79" r:id="rId144"/>
-    <hyperlink ref="I80" r:id="rId145"/>
-    <hyperlink ref="K80" r:id="rId146"/>
-    <hyperlink ref="I82" r:id="rId147"/>
-    <hyperlink ref="J82" r:id="rId148"/>
-    <hyperlink ref="K82" r:id="rId149"/>
-    <hyperlink ref="K83" r:id="rId150"/>
-    <hyperlink ref="I85" r:id="rId151"/>
-    <hyperlink ref="K85" r:id="rId152"/>
-    <hyperlink ref="I86" r:id="rId153"/>
-    <hyperlink ref="K86" r:id="rId154"/>
-    <hyperlink ref="I87" r:id="rId155"/>
-    <hyperlink ref="K87" r:id="rId156"/>
-    <hyperlink ref="K89" r:id="rId157"/>
-    <hyperlink ref="I90" r:id="rId158"/>
-    <hyperlink ref="K90" r:id="rId159"/>
-    <hyperlink ref="I91" r:id="rId160"/>
-    <hyperlink ref="K91" r:id="rId161"/>
-    <hyperlink ref="I92" r:id="rId162"/>
-    <hyperlink ref="J92" r:id="rId163"/>
-    <hyperlink ref="K92" r:id="rId164"/>
-    <hyperlink ref="I93" r:id="rId165"/>
-    <hyperlink ref="K93" r:id="rId166"/>
-    <hyperlink ref="I94" r:id="rId167"/>
-    <hyperlink ref="K94" r:id="rId168"/>
-    <hyperlink ref="I95" r:id="rId169"/>
-    <hyperlink ref="K95" r:id="rId170"/>
-    <hyperlink ref="K96" r:id="rId171"/>
-    <hyperlink ref="K97" r:id="rId172"/>
-    <hyperlink ref="I98" r:id="rId173"/>
-    <hyperlink ref="K98" r:id="rId174"/>
-    <hyperlink ref="I101" r:id="rId175"/>
-    <hyperlink ref="J101" r:id="rId176"/>
-    <hyperlink ref="K101" r:id="rId177"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="N2" r:id="rId3"/>
+    <hyperlink ref="L3" r:id="rId4"/>
+    <hyperlink ref="M3" r:id="rId5"/>
+    <hyperlink ref="N3" r:id="rId6"/>
+    <hyperlink ref="L4" r:id="rId7"/>
+    <hyperlink ref="M4" r:id="rId8"/>
+    <hyperlink ref="L5" r:id="rId9"/>
+    <hyperlink ref="M5" r:id="rId10"/>
+    <hyperlink ref="N5" r:id="rId11"/>
+    <hyperlink ref="L6" r:id="rId12"/>
+    <hyperlink ref="N6" r:id="rId13"/>
+    <hyperlink ref="L7" r:id="rId14"/>
+    <hyperlink ref="N7" r:id="rId15"/>
+    <hyperlink ref="L8" r:id="rId16"/>
+    <hyperlink ref="M8" r:id="rId17"/>
+    <hyperlink ref="N8" r:id="rId18"/>
+    <hyperlink ref="L9" r:id="rId19"/>
+    <hyperlink ref="N9" r:id="rId20"/>
+    <hyperlink ref="L11" r:id="rId21"/>
+    <hyperlink ref="N11" r:id="rId22"/>
+    <hyperlink ref="L12" r:id="rId23"/>
+    <hyperlink ref="M12" r:id="rId24"/>
+    <hyperlink ref="N12" r:id="rId25"/>
+    <hyperlink ref="L13" r:id="rId26"/>
+    <hyperlink ref="M13" r:id="rId27"/>
+    <hyperlink ref="N13" r:id="rId28"/>
+    <hyperlink ref="M14" r:id="rId29"/>
+    <hyperlink ref="N14" r:id="rId30"/>
+    <hyperlink ref="L15" r:id="rId31"/>
+    <hyperlink ref="M15" r:id="rId32"/>
+    <hyperlink ref="N15" r:id="rId33"/>
+    <hyperlink ref="L16" r:id="rId34"/>
+    <hyperlink ref="M16" r:id="rId35"/>
+    <hyperlink ref="N16" r:id="rId36"/>
+    <hyperlink ref="L17" r:id="rId37"/>
+    <hyperlink ref="M17" r:id="rId38"/>
+    <hyperlink ref="N17" r:id="rId39"/>
+    <hyperlink ref="N18" r:id="rId40"/>
+    <hyperlink ref="L19" r:id="rId41"/>
+    <hyperlink ref="M19" r:id="rId42"/>
+    <hyperlink ref="N19" r:id="rId43"/>
+    <hyperlink ref="L21" r:id="rId44"/>
+    <hyperlink ref="N21" r:id="rId45"/>
+    <hyperlink ref="N22" r:id="rId46"/>
+    <hyperlink ref="L24" r:id="rId47"/>
+    <hyperlink ref="M24" r:id="rId48"/>
+    <hyperlink ref="N24" r:id="rId49"/>
+    <hyperlink ref="L25" r:id="rId50"/>
+    <hyperlink ref="M25" r:id="rId51"/>
+    <hyperlink ref="N25" r:id="rId52"/>
+    <hyperlink ref="N26" r:id="rId53"/>
+    <hyperlink ref="L28" r:id="rId54"/>
+    <hyperlink ref="M28" r:id="rId55"/>
+    <hyperlink ref="N28" r:id="rId56"/>
+    <hyperlink ref="M30" r:id="rId57"/>
+    <hyperlink ref="N30" r:id="rId58"/>
+    <hyperlink ref="L32" r:id="rId59"/>
+    <hyperlink ref="N32" r:id="rId60"/>
+    <hyperlink ref="L33" r:id="rId61"/>
+    <hyperlink ref="N33" r:id="rId62"/>
+    <hyperlink ref="L34" r:id="rId63"/>
+    <hyperlink ref="N34" r:id="rId64"/>
+    <hyperlink ref="L35" r:id="rId65"/>
+    <hyperlink ref="N35" r:id="rId66"/>
+    <hyperlink ref="L36" r:id="rId67"/>
+    <hyperlink ref="M36" r:id="rId68"/>
+    <hyperlink ref="N36" r:id="rId69"/>
+    <hyperlink ref="L37" r:id="rId70"/>
+    <hyperlink ref="N37" r:id="rId71"/>
+    <hyperlink ref="L39" r:id="rId72"/>
+    <hyperlink ref="N39" r:id="rId73"/>
+    <hyperlink ref="N41" r:id="rId74"/>
+    <hyperlink ref="L42" r:id="rId75"/>
+    <hyperlink ref="M42" r:id="rId76"/>
+    <hyperlink ref="N42" r:id="rId77"/>
+    <hyperlink ref="L43" r:id="rId78"/>
+    <hyperlink ref="N43" r:id="rId79"/>
+    <hyperlink ref="L44" r:id="rId80"/>
+    <hyperlink ref="N44" r:id="rId81"/>
+    <hyperlink ref="L45" r:id="rId82"/>
+    <hyperlink ref="M45" r:id="rId83"/>
+    <hyperlink ref="N45" r:id="rId84"/>
+    <hyperlink ref="L46" r:id="rId85"/>
+    <hyperlink ref="N46" r:id="rId86"/>
+    <hyperlink ref="L47" r:id="rId87"/>
+    <hyperlink ref="N47" r:id="rId88"/>
+    <hyperlink ref="L48" r:id="rId89"/>
+    <hyperlink ref="N48" r:id="rId90"/>
+    <hyperlink ref="L49" r:id="rId91"/>
+    <hyperlink ref="N49" r:id="rId92"/>
+    <hyperlink ref="M50" r:id="rId93"/>
+    <hyperlink ref="N50" r:id="rId94"/>
+    <hyperlink ref="L51" r:id="rId95"/>
+    <hyperlink ref="N51" r:id="rId96"/>
+    <hyperlink ref="L52" r:id="rId97"/>
+    <hyperlink ref="N52" r:id="rId98"/>
+    <hyperlink ref="L53" r:id="rId99"/>
+    <hyperlink ref="N53" r:id="rId100"/>
+    <hyperlink ref="L54" r:id="rId101"/>
+    <hyperlink ref="M54" r:id="rId102"/>
+    <hyperlink ref="N54" r:id="rId103"/>
+    <hyperlink ref="L55" r:id="rId104"/>
+    <hyperlink ref="M55" r:id="rId105"/>
+    <hyperlink ref="N55" r:id="rId106"/>
+    <hyperlink ref="L57" r:id="rId107"/>
+    <hyperlink ref="N57" r:id="rId108"/>
+    <hyperlink ref="L59" r:id="rId109"/>
+    <hyperlink ref="N59" r:id="rId110"/>
+    <hyperlink ref="L60" r:id="rId111"/>
+    <hyperlink ref="N60" r:id="rId112"/>
+    <hyperlink ref="L61" r:id="rId113"/>
+    <hyperlink ref="M61" r:id="rId114"/>
+    <hyperlink ref="N61" r:id="rId115"/>
+    <hyperlink ref="N62" r:id="rId116"/>
+    <hyperlink ref="M64" r:id="rId117"/>
+    <hyperlink ref="N65" r:id="rId118"/>
+    <hyperlink ref="N66" r:id="rId119"/>
+    <hyperlink ref="L67" r:id="rId120"/>
+    <hyperlink ref="N67" r:id="rId121"/>
+    <hyperlink ref="L68" r:id="rId122"/>
+    <hyperlink ref="M68" r:id="rId123"/>
+    <hyperlink ref="N68" r:id="rId124"/>
+    <hyperlink ref="L70" r:id="rId125"/>
+    <hyperlink ref="M70" r:id="rId126"/>
+    <hyperlink ref="N70" r:id="rId127"/>
+    <hyperlink ref="L71" r:id="rId128"/>
+    <hyperlink ref="N71" r:id="rId129"/>
+    <hyperlink ref="L72" r:id="rId130"/>
+    <hyperlink ref="N72" r:id="rId131"/>
+    <hyperlink ref="L73" r:id="rId132"/>
+    <hyperlink ref="N73" r:id="rId133"/>
+    <hyperlink ref="L74" r:id="rId134"/>
+    <hyperlink ref="N74" r:id="rId135"/>
+    <hyperlink ref="L75" r:id="rId136"/>
+    <hyperlink ref="N75" r:id="rId137"/>
+    <hyperlink ref="N76" r:id="rId138"/>
+    <hyperlink ref="N77" r:id="rId139"/>
+    <hyperlink ref="L78" r:id="rId140"/>
+    <hyperlink ref="M78" r:id="rId141"/>
+    <hyperlink ref="N78" r:id="rId142"/>
+    <hyperlink ref="L79" r:id="rId143"/>
+    <hyperlink ref="N79" r:id="rId144"/>
+    <hyperlink ref="L80" r:id="rId145"/>
+    <hyperlink ref="N80" r:id="rId146"/>
+    <hyperlink ref="L82" r:id="rId147"/>
+    <hyperlink ref="M82" r:id="rId148"/>
+    <hyperlink ref="N82" r:id="rId149"/>
+    <hyperlink ref="N83" r:id="rId150"/>
+    <hyperlink ref="L85" r:id="rId151"/>
+    <hyperlink ref="N85" r:id="rId152"/>
+    <hyperlink ref="L86" r:id="rId153"/>
+    <hyperlink ref="N86" r:id="rId154"/>
+    <hyperlink ref="L87" r:id="rId155"/>
+    <hyperlink ref="N87" r:id="rId156"/>
+    <hyperlink ref="N89" r:id="rId157"/>
+    <hyperlink ref="L90" r:id="rId158"/>
+    <hyperlink ref="N90" r:id="rId159"/>
+    <hyperlink ref="L91" r:id="rId160"/>
+    <hyperlink ref="N91" r:id="rId161"/>
+    <hyperlink ref="L92" r:id="rId162"/>
+    <hyperlink ref="M92" r:id="rId163"/>
+    <hyperlink ref="N92" r:id="rId164"/>
+    <hyperlink ref="L93" r:id="rId165"/>
+    <hyperlink ref="N93" r:id="rId166"/>
+    <hyperlink ref="L94" r:id="rId167"/>
+    <hyperlink ref="N94" r:id="rId168"/>
+    <hyperlink ref="L95" r:id="rId169"/>
+    <hyperlink ref="N95" r:id="rId170"/>
+    <hyperlink ref="N96" r:id="rId171"/>
+    <hyperlink ref="N97" r:id="rId172"/>
+    <hyperlink ref="L98" r:id="rId173"/>
+    <hyperlink ref="N98" r:id="rId174"/>
+    <hyperlink ref="L101" r:id="rId175"/>
+    <hyperlink ref="M101" r:id="rId176"/>
+    <hyperlink ref="N101" r:id="rId177"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
